--- a/Documentation/Timing_Spreadsheet.xlsx
+++ b/Documentation/Timing_Spreadsheet.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="27320" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="KNN" sheetId="1" r:id="rId1"/>
+    <sheet name="Binary Threshold" sheetId="2" r:id="rId2"/>
+    <sheet name="RGB Threshold" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="31">
   <si>
     <t>CPU Timings</t>
   </si>
@@ -117,13 +119,16 @@
   </si>
   <si>
     <t>Large Input Image Test</t>
+  </si>
+  <si>
+    <t>1024x768</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +149,12 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -495,7 +506,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -862,7 +873,9 @@
       <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>3.3862999999999997E-2</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s">
         <v>20</v>
@@ -878,7 +891,9 @@
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>4063.3955369999999</v>
+      </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -891,7 +906,9 @@
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2">
+        <v>4063.5549510000001</v>
+      </c>
       <c r="E35" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -924,7 +941,9 @@
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>1.9155999999999999E-2</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s">
         <v>21</v>
@@ -934,11 +953,15 @@
       <c r="A40" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2">
+        <v>6.535E-3</v>
+      </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -951,7 +974,9 @@
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2">
+        <v>5139.6417469999997</v>
+      </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -964,7 +989,9 @@
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2">
+        <v>5139.693475</v>
+      </c>
       <c r="E42" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1052,4 +1079,113 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>50246</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Documentation/Timing_Spreadsheet.xlsx
+++ b/Documentation/Timing_Spreadsheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="27320" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="440" windowWidth="25600" windowHeight="27320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="KNN" sheetId="1" r:id="rId1"/>
@@ -503,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,10 +517,11 @@
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="38.5" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -540,7 +541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -551,14 +552,27 @@
         <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>1.9401000000000002E-2</v>
+        <f>AVERAGE(H2:K2)</f>
+        <v>1.9335999999999999E-2</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>2.0827999999999999E-2</v>
+      </c>
+      <c r="I2">
+        <v>1.8433999999999999E-2</v>
+      </c>
+      <c r="J2">
+        <v>1.9207999999999999E-2</v>
+      </c>
+      <c r="K2">
+        <v>1.8873999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -569,14 +583,27 @@
         <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>6.9779999999999998E-3</v>
+        <f>AVERAGE(H3:K3)</f>
+        <v>6.5969999999999996E-3</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>6.6E-3</v>
+      </c>
+      <c r="I3">
+        <v>6.5839999999999996E-3</v>
+      </c>
+      <c r="J3">
+        <v>6.574E-3</v>
+      </c>
+      <c r="K3">
+        <v>6.6299999999999996E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -587,11 +614,24 @@
         <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>837.40986199999998</v>
+        <f>AVERAGE(H4:K4)</f>
+        <v>791.62555225000006</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>791.99340500000005</v>
+      </c>
+      <c r="I4">
+        <v>790.06653300000005</v>
+      </c>
+      <c r="J4">
+        <v>788.84132499999998</v>
+      </c>
+      <c r="K4">
+        <v>795.60094600000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -602,11 +642,24 @@
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>837.43410300000005</v>
+        <f>AVERAGE(H5:K5)</f>
+        <v>791.65173525</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>792.02281600000003</v>
+      </c>
+      <c r="I5">
+        <v>790.08999100000005</v>
+      </c>
+      <c r="J5">
+        <v>788.86588600000005</v>
+      </c>
+      <c r="K5">
+        <v>795.62824799999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -620,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -631,11 +684,11 @@
         <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>2.0119999999999999E-2</v>
+        <v>1.9417E-2</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -646,11 +699,11 @@
         <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>7.228E-3</v>
+        <v>6.5719999999999997E-3</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -661,11 +714,11 @@
         <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>867.408502</v>
+        <v>788.61347799999999</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -676,11 +729,11 @@
         <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>867.433806</v>
+        <v>788.63799900000004</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -694,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -705,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>1.9833E-2</v>
+        <v>1.9831999999999999E-2</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -720,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>7.254E-3</v>
+        <v>6.594E-3</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -735,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>870.53600500000005</v>
+        <v>791.31708700000001</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -750,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="2">
-        <v>870.56057399999997</v>
+        <v>791.34387600000002</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -779,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>2.2124999999999999E-2</v>
+        <v>1.8624000000000002E-2</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -794,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>6.9629999999999996E-3</v>
+        <v>6.6150000000000002E-3</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -809,7 +862,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="2">
-        <v>835.64055099999996</v>
+        <v>793.82115999999996</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -824,7 +877,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>835.66816100000005</v>
+        <v>793.84445800000003</v>
       </c>
       <c r="E26" s="2"/>
     </row>
